--- a/script_ML_Coatingsystem/result2.xlsx
+++ b/script_ML_Coatingsystem/result2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -389,10 +389,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-1213.87</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1113.23</v>
+        <v>-17.51</v>
       </c>
     </row>
     <row r="4">
@@ -403,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-40.28</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="5">
@@ -411,10 +411,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1341.04</v>
       </c>
       <c r="D5" t="n">
-        <v>23.1</v>
+        <v>-1405.2</v>
       </c>
     </row>
     <row r="6">
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>69.36</v>
       </c>
       <c r="D6" t="n">
-        <v>-25.34</v>
+        <v>-571.5700000000001</v>
       </c>
     </row>
     <row r="7">
@@ -433,10 +433,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>468.21</v>
       </c>
       <c r="D7" t="n">
-        <v>-28.46</v>
+        <v>395.4</v>
       </c>
     </row>
     <row r="8">
@@ -444,10 +444,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>707.51</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>906.42</v>
+        <v>-18.02</v>
       </c>
     </row>
     <row r="9">
@@ -455,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>233.53</v>
+        <v>-786.13</v>
       </c>
       <c r="D9" t="n">
-        <v>167.64</v>
+        <v>-748.3</v>
       </c>
     </row>
     <row r="10">
@@ -466,10 +466,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>-618.5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-552.74</v>
+        <v>-15.05</v>
       </c>
     </row>
     <row r="11">
@@ -477,10 +477,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-323.7</v>
       </c>
       <c r="D11" t="n">
-        <v>-47.14</v>
+        <v>-467.1</v>
       </c>
     </row>
     <row r="12">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-97.39</v>
+        <v>-30.72</v>
       </c>
     </row>
     <row r="13">
@@ -499,10 +499,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>388.44</v>
+        <v>-809.25</v>
       </c>
       <c r="D13" t="n">
-        <v>361.92</v>
+        <v>-828.85</v>
       </c>
     </row>
     <row r="14">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-35.06</v>
+        <v>-21.84</v>
       </c>
     </row>
     <row r="15">
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-96.13</v>
+        <v>-18.88</v>
       </c>
     </row>
     <row r="16">
@@ -532,10 +532,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-206.56</v>
       </c>
       <c r="D16" t="n">
-        <v>-29.17</v>
+        <v>-205.27</v>
       </c>
     </row>
     <row r="17">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-29</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="18">
@@ -554,10 +554,10 @@
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>-468.21</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-476.43</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="19">
@@ -565,10 +565,10 @@
         <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>-514.45</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-480.73</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="20">
@@ -576,10 +576,10 @@
         <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>256.65</v>
+        <v>-907.51</v>
       </c>
       <c r="D20" t="n">
-        <v>83.18000000000001</v>
+        <v>-1018.83</v>
       </c>
     </row>
     <row r="21">
@@ -587,10 +587,10 @@
         <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>-526.01</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-497.06</v>
+        <v>-19.18</v>
       </c>
     </row>
     <row r="22">
@@ -598,10 +598,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1190.75</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.52</v>
+        <v>1110.17</v>
       </c>
     </row>
     <row r="23">
@@ -609,10 +609,10 @@
         <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>843.9299999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>-72.33</v>
+        <v>958.73</v>
       </c>
     </row>
     <row r="24">
@@ -620,10 +620,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>676.3</v>
+        <v>-502.89</v>
       </c>
       <c r="D24" t="n">
-        <v>726.54</v>
+        <v>-487.84</v>
       </c>
     </row>
     <row r="25">
@@ -631,10 +631,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="n">
-        <v>-786.13</v>
+        <v>-1121.39</v>
       </c>
       <c r="D25" t="n">
-        <v>-709.83</v>
+        <v>-985.05</v>
       </c>
     </row>
     <row r="26">
@@ -642,10 +642,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>707.51</v>
       </c>
       <c r="D26" t="n">
-        <v>-27.68</v>
+        <v>722.99</v>
       </c>
     </row>
     <row r="27">
@@ -653,10 +653,10 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-426.22</v>
       </c>
       <c r="D27" t="n">
-        <v>-30.64</v>
+        <v>-435.61</v>
       </c>
     </row>
     <row r="28">
@@ -664,10 +664,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>36.99</v>
       </c>
       <c r="D28" t="n">
-        <v>-33.34</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="29">
@@ -675,10 +675,10 @@
         <v>26</v>
       </c>
       <c r="C29" t="n">
-        <v>-1462.43</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-1199.52</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="30">
@@ -686,10 +686,10 @@
         <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1190.75</v>
       </c>
       <c r="D30" t="n">
-        <v>-103.85</v>
+        <v>1167.93</v>
       </c>
     </row>
     <row r="31">
@@ -697,10 +697,10 @@
         <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-676.3</v>
       </c>
       <c r="D31" t="n">
-        <v>20.39</v>
+        <v>-626.89</v>
       </c>
     </row>
     <row r="32">
@@ -708,10 +708,10 @@
         <v>29</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1092.49</v>
       </c>
       <c r="D32" t="n">
-        <v>-33.66</v>
+        <v>-945.5</v>
       </c>
     </row>
     <row r="33">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-81.70999999999999</v>
+        <v>-12.77</v>
       </c>
     </row>
     <row r="34">
@@ -730,10 +730,10 @@
         <v>31</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>121.39</v>
       </c>
       <c r="D34" t="n">
-        <v>-161.03</v>
+        <v>170.53</v>
       </c>
     </row>
     <row r="35">
@@ -741,10 +741,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>31.96</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-87.16</v>
+        <v>-13.62</v>
       </c>
     </row>
     <row r="36">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-42.35</v>
+        <v>-15.03</v>
       </c>
     </row>
     <row r="37">
@@ -763,10 +763,10 @@
         <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-526.01</v>
       </c>
       <c r="D37" t="n">
-        <v>-33.93</v>
+        <v>-501.5</v>
       </c>
     </row>
     <row r="38">
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-29.79</v>
+        <v>-15.41</v>
       </c>
     </row>
     <row r="39">
@@ -785,10 +785,10 @@
         <v>36</v>
       </c>
       <c r="C39" t="n">
-        <v>-745.66</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-317.63</v>
+        <v>-22.24</v>
       </c>
     </row>
     <row r="40">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-40.66</v>
+        <v>-17.46</v>
       </c>
     </row>
     <row r="41">
@@ -807,10 +807,10 @@
         <v>38</v>
       </c>
       <c r="C41" t="n">
-        <v>78.2</v>
+        <v>-1121.39</v>
       </c>
       <c r="D41" t="n">
-        <v>-72</v>
+        <v>-1083.75</v>
       </c>
     </row>
     <row r="42">
@@ -818,10 +818,10 @@
         <v>39</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-142.98</v>
       </c>
       <c r="D42" t="n">
-        <v>-28.54</v>
+        <v>-122.48</v>
       </c>
     </row>
     <row r="43">
@@ -829,10 +829,10 @@
         <v>40</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1190.75</v>
       </c>
       <c r="D43" t="n">
-        <v>-48.06</v>
+        <v>-1120.61</v>
       </c>
     </row>
     <row r="44">
@@ -840,10 +840,10 @@
         <v>41</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-618.5</v>
       </c>
       <c r="D44" t="n">
-        <v>26.25</v>
+        <v>-437.27</v>
       </c>
     </row>
     <row r="45">
@@ -851,10 +851,10 @@
         <v>42</v>
       </c>
       <c r="C45" t="n">
-        <v>-42.77</v>
+        <v>-13.87</v>
       </c>
       <c r="D45" t="n">
-        <v>-107.27</v>
+        <v>-54.09</v>
       </c>
     </row>
     <row r="46">
@@ -862,10 +862,10 @@
         <v>43</v>
       </c>
       <c r="C46" t="n">
-        <v>-264.37</v>
+        <v>-722.54</v>
       </c>
       <c r="D46" t="n">
-        <v>-276.37</v>
+        <v>-819.7</v>
       </c>
     </row>
     <row r="47">
@@ -873,10 +873,10 @@
         <v>44</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-754.91</v>
       </c>
       <c r="D47" t="n">
-        <v>-29.72</v>
+        <v>-443.9</v>
       </c>
     </row>
     <row r="48">
@@ -884,10 +884,10 @@
         <v>45</v>
       </c>
       <c r="C48" t="n">
-        <v>-867.05</v>
+        <v>1190.75</v>
       </c>
       <c r="D48" t="n">
-        <v>-735.98</v>
+        <v>975.8200000000001</v>
       </c>
     </row>
     <row r="49">
@@ -895,10 +895,10 @@
         <v>46</v>
       </c>
       <c r="C49" t="n">
-        <v>596.53</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>463.99</v>
+        <v>-14.52</v>
       </c>
     </row>
     <row r="50">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-50.91</v>
+        <v>-16.74</v>
       </c>
     </row>
     <row r="51">
@@ -917,10 +917,10 @@
         <v>48</v>
       </c>
       <c r="C51" t="n">
-        <v>-739.88</v>
+        <v>640.46</v>
       </c>
       <c r="D51" t="n">
-        <v>-700.25</v>
+        <v>430.02</v>
       </c>
     </row>
     <row r="52">
@@ -928,10 +928,10 @@
         <v>49</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1206.94</v>
       </c>
       <c r="D52" t="n">
-        <v>-21.5</v>
+        <v>599.3</v>
       </c>
     </row>
     <row r="53">
@@ -939,10 +939,10 @@
         <v>50</v>
       </c>
       <c r="C53" t="n">
-        <v>294.8</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>216.9</v>
+        <v>-26.3</v>
       </c>
     </row>
     <row r="54">
@@ -950,10 +950,10 @@
         <v>51</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-264.37</v>
       </c>
       <c r="D54" t="n">
-        <v>-17.85</v>
+        <v>-248.49</v>
       </c>
     </row>
     <row r="55">
@@ -961,10 +961,10 @@
         <v>52</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.87</v>
+        <v>664.74</v>
       </c>
       <c r="D55" t="n">
-        <v>-73.23999999999999</v>
+        <v>675.62</v>
       </c>
     </row>
     <row r="56">
@@ -972,10 +972,10 @@
         <v>53</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-300.58</v>
       </c>
       <c r="D56" t="n">
-        <v>-91.7</v>
+        <v>-386.89</v>
       </c>
     </row>
     <row r="57">
@@ -983,10 +983,10 @@
         <v>54</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-514.45</v>
       </c>
       <c r="D57" t="n">
-        <v>-35.5</v>
+        <v>-600.15</v>
       </c>
     </row>
     <row r="58">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-48.95</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="59">
@@ -1005,10 +1005,10 @@
         <v>56</v>
       </c>
       <c r="C59" t="n">
-        <v>175.72</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>74.81</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="60">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-30.83</v>
+        <v>-24.33</v>
       </c>
     </row>
     <row r="61">
@@ -1027,10 +1027,10 @@
         <v>58</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-506.36</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05</v>
+        <v>-284.13</v>
       </c>
     </row>
     <row r="62">
@@ -1041,216 +1041,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>34.55</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-15.81</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-172.91</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-624.28</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-567.6799999999999</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-580.35</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-718.0599999999999</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="C66" t="n">
-        <v>867.05</v>
-      </c>
-      <c r="D66" t="n">
-        <v>790.66</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-103.45</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-136.17</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-36.48</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-139.12</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-208.09</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-450.19</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-427.75</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-457.15</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-91.52</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>65.27</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-514.45</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-497.27</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-183.44</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-180.09</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-323.7</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-376.8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-971.1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-1036.84</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="C79" t="n">
-        <v>843.9299999999999</v>
-      </c>
-      <c r="D79" t="n">
-        <v>900.46</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-34.68</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-135.42</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1190.75</v>
-      </c>
-      <c r="D81" t="n">
-        <v>975.49</v>
+        <v>-19.58</v>
       </c>
     </row>
   </sheetData>
